--- a/Things to be prepared.xlsx
+++ b/Things to be prepared.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jf4385\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547AC001-5437-4B2F-BF23-8D180AD108D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E581912-4B75-4FFB-857B-5AB99D4A93F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{721308E5-A18B-4F78-9ED7-A0F68C74127F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{721308E5-A18B-4F78-9ED7-A0F68C74127F}"/>
   </bookViews>
   <sheets>
     <sheet name="3.1 SHARED WITH 1ST BATCH" sheetId="1" r:id="rId1"/>
     <sheet name="3.2 RECM for 2ND BATCH TO BUY" sheetId="2" r:id="rId2"/>
-    <sheet name="3.3 Personal Items" sheetId="3" r:id="rId3"/>
+    <sheet name="3.3 Personal Items" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
   <si>
     <t>Item</t>
   </si>
@@ -489,6 +489,1085 @@
       </rPr>
       <t>to buy</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaia Ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anson Law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>based on each class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分類</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>物品</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文具用品</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>書寫用具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>運動服裝</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>淺色運動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> T-Shirt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>深色運動短褲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>配件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小鎖（最好密碼鎖）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>衣物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建議額外準備物品</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小剪刀（清理制服上線頭用）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鼻毛剪</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小鞋拔</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>吸震鞋墊</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小型蒸氣熨斗（處理制服摺痕用）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>粗身雙面膠紙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後備眼鏡（如適用，建議</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>副）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>白色打底運動胸圍（女學員）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>白色打底衫（男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>女學員）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黑色打底短褲（女學員）</t>
+    </r>
+  </si>
+  <si>
+    <t>Smart Casual Wear</t>
+  </si>
+  <si>
+    <t>Camp Kit</t>
+  </si>
+  <si>
+    <t>Energy Bar etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>索引</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>領打底衫（必須不可外露</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - V </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>領）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>運動鞋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跑鞋（考試用）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可以有顏色</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>行山裝備</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>行山鞋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Compass</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個人日常用品</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個人日常用品（如牙刷、沐浴露等）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水壺（如需要）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>延長線（如需要，視乎房間情況）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>藥物及補充品（如需要）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗衣袋（如想使用洗衣服務）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鞋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鞋刷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>兩罐鞋油（黑色）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>衣架（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>額外衣物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>帶一套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Smart Casual Wear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>襯衫和長褲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備註</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：長褲需為深色，不可穿花恤衫、吊腳褲、奇怪布料褲等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>課程服裝</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>課程服裝（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>防水外套，可能會被名牌針刺穿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Decathlon </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平價款即可，背包，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Trouser </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>注意我們會統一購買防風外套上衣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>縫紉用具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>縫紉工具套裝（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內含黑色、深綠色、寶藍色線</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>熨衣用具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>熨斗（可以與其他人共享，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有很多熨衣板留給我們使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>床相關（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>呎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> x 6.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>呎）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>枕頭</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>毯子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>被單</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>床單</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>眼鏡繩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Tick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>（如適用）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>咇鈕（女學員）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>食物</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帽刷（清理警帽灰塵用途）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨光布（清潔警帽帽唇及磨鞋用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛皮膠紙（清理制服上灰塵）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小手錶（手錶放於制服褲袋內，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not Obvious</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，不建議用智能手錶）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY INDIVIDUALLY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +1578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;HK$&quot;#,##0.00_);[Red]\(&quot;HK$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,8 +1665,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +1708,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,13 +1797,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -714,30 +1810,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -747,6 +1819,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -765,20 +1852,68 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,314 +2231,314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE3DDE0-26B0-4F49-AD03-7126DCBAA450}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="24">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6">
+      <c r="A4" s="25"/>
+      <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="24">
         <v>35.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6">
+      <c r="A5" s="25"/>
+      <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="28">
         <v>76.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="27">
         <v>2</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="28">
         <v>173.7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10">
+      <c r="A8" s="29"/>
+      <c r="B8" s="27">
         <v>3</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="27">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="28">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10">
+      <c r="A10" s="29"/>
+      <c r="B10" s="27">
         <v>5</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="28">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10">
+      <c r="A11" s="29"/>
+      <c r="B11" s="27">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="28">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10">
+      <c r="A12" s="29"/>
+      <c r="B12" s="27">
         <v>7</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="28">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10">
+      <c r="A13" s="29"/>
+      <c r="B13" s="27">
         <v>8</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="28">
         <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10">
+      <c r="A14" s="29"/>
+      <c r="B14" s="27">
         <v>9</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="28">
         <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10">
+      <c r="A15" s="29"/>
+      <c r="B15" s="27">
         <v>10</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="28">
         <v>53.7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10">
+      <c r="A16" s="29"/>
+      <c r="B16" s="27">
         <v>11</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="28">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="27">
         <v>12</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="28">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10">
+      <c r="A18" s="29"/>
+      <c r="B18" s="27">
         <v>13</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="28">
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="27">
         <v>14</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="28">
         <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1418,124 +2553,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15176CC8-36F8-40AD-85E7-54F74D59C5BA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22">
+      <c r="A6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22">
+      <c r="A7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1547,15 +2692,535 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADE481B-AB7C-461E-99D4-10199902CA99}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76AD202-A2F3-4F91-986F-7805B0D2084C}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <f>ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <f t="shared" ref="A4:A43" si="0">ROW()-1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="31">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="31">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="31">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
